--- a/bad_messages.xlsx
+++ b/bad_messages.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dasha\Data_Science\Projects\HackathonSp2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C95CD8D-1192-4DF1-8420-B71F47587265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A5E36D-0118-4919-812A-01597D76701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bad_messages" sheetId="1" r:id="rId1"/>
@@ -20,173 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Cringe Severity</t>
+    <t>hey I think we should break up</t>
   </si>
   <si>
-    <t xml:space="preserve">Unfortunate Recipient </t>
+    <t>I accidentally liked your ex's photo from two years ago.</t>
   </si>
   <si>
-    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.scientology.org/&amp;ved=2ahUKEwi2zqjfnr6FAxWQG9AFHeycCi8QFnoECAYQAQ&amp;usg=AOvVaw0hdiNa_Intk1izUuhHQuFT</t>
+    <t>I wrote a love letter to you but sent it to my mom by mistake.</t>
   </si>
   <si>
-    <t>any</t>
+    <t>I told your parents about that time you got drunk at the office party.</t>
   </si>
   <si>
-    <t>would you be interested in learing more about the church of scientology?</t>
+    <t>I accidentally sent a message meant for my best friend, complaining about you.</t>
   </si>
   <si>
-    <t>Hey, you had some food in your teeth earlier, but i didn't tell you. Im sorry.</t>
-  </si>
-  <si>
-    <t>Yall are haters. Im just tryna act a little sus sometimes.</t>
-  </si>
-  <si>
-    <t>i want a banana</t>
-  </si>
-  <si>
-    <t>Did you know that ducks can actually fly backwards faster than they can fly forwards? It's true! Their unique wing structure allows them to achieve reverse flight speeds of up to 30 miles per hour, making them the ultimate avian daredevils of the sky!</t>
-  </si>
-  <si>
-    <t>I love you honey busciut</t>
-  </si>
-  <si>
-    <t>Mom is drinking again.</t>
-  </si>
-  <si>
-    <t>dad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my toe itch. </t>
-  </si>
-  <si>
-    <t>ooo wee mash my buttons!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any </t>
-  </si>
-  <si>
-    <t>OMG, I can't believe I'm saying this, but I accidentally sent a selfie to my crush with my face mask half on and half off! Now they probably think I'm a total weirdo who can't even take a normal selfie. Help me, I'm dying of embarrassment!</t>
-  </si>
-  <si>
-    <t>Hey dad, i need some money to cover the vet bills for my partner's emotional support rabbit. It should only be like 200 bucks.</t>
-  </si>
-  <si>
-    <t>i think we should break up.</t>
-  </si>
-  <si>
-    <t>gf/bf</t>
-  </si>
-  <si>
-    <t>my poop stink.</t>
-  </si>
-  <si>
-    <t>Hey buddy. I think youre kinda hot. Wanna go out sometime?</t>
-  </si>
-  <si>
-    <t>I think you left your shirt at my house..</t>
-  </si>
-  <si>
-    <t>ex gf/bf</t>
-  </si>
-  <si>
-    <t>Hey, so I was stalking my ex's Instagram last night, and I accidentally liked a photo from like three years ago...  Do you think they noticed? Oh god, I hope not. Now I feel like a creepy stalker who can't move on. Ugh, I'm such a disaster!</t>
-  </si>
-  <si>
-    <t>Your face is stupid.</t>
-  </si>
-  <si>
-    <t>Your farts smell kinda alrightÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my body aches </t>
-  </si>
-  <si>
-    <t xml:space="preserve">i want taylor swift to be my mommy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">um, hi (uwu) *extends hand* I-I r-really like you-you're face! uwu *sniffles* </t>
-  </si>
-  <si>
-    <t>blood blood blood blood blood blood blood blood blood blood blood blood blood blood blood blood</t>
-  </si>
-  <si>
-    <t>Hi, I've been thinking about it lately, and I really think you should take a shower before the next time we go out. I could smell you from across the table, and everyone in the room was giving us funky looks. Your breath smelled like nightmares and croutons.</t>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Hey, do you have an extra pair of underwear I could borrow? Asking for a friendÉ</t>
-  </si>
-  <si>
-    <t>yall should consider a divorce</t>
-  </si>
-  <si>
-    <t>mom/dad</t>
-  </si>
-  <si>
-    <t>we should get back together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the fields of mothers mercy,
-Liquifying my interior mind
-My body aches for you inside
-My head like little chunks of lead
-I hope you don't think of me differently now. Wanna grab dinner?
-</t>
-  </si>
-  <si>
-    <t>Hi baby girl hehe. Everything's okay, I promise. I forgive you. It's okay, don't worry about it. Everything's gonna be okay. I love you. I love you so much. I love you more than there are grains of sand, on every beach, of every planet, of every galaxy of the universe. I-I need you in my life. I need you more than humans need water, and food to survive. You mean more to me than - home depot means to Mr Ladrado. You mean more to me than just anything. You mean more to me than gold and diamonds, mean to the greediest burglar. And you're just the most perfect, most beautiful girl in all of the world, and I love you so much. I hope you enjoy watching this, baby girl kiss, hehe. See you at school tomorrow baby girl. I love you raises eyebrows, hehe. I do, it's true. I love you more than anything else in the world hehehe. Bye baby girl. Stay perfect. Just for me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i think youve put on some weight. </t>
-  </si>
-  <si>
-    <t>ex gf/bf, GF/BF, mom</t>
-  </si>
-  <si>
-    <t>i want your banana</t>
-  </si>
-  <si>
-    <t>i miss you daddy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hey, i know its been a long time but i cant get you off my mind. i think of you with insatiable appetite. i have written you the following poem:  
-In the darkness of my soul, you lingered like a fart,
-A stench so foul, you left a permanent mark.
-Your love was like a poison, seeping through my veins,
-Leaving scars and memories, driving me insane.
-You were a succubus, draining all my energy,
-Leaving me with nothing but despair and agony.
-Your kisses tasted like expired cheese,
-Your touch felt like a swarm of disease.
-Your lies were like cheap perfume, suffocating me,
-Your deceitful eyes, oh how they deceived me.
-But I was blind, blinded by lust and desire,
-Now I see you for what you are, a burning dumpster fire.
-So go ahead, with your wicked ways,
-But know that I've escaped your toxic maze.
-I'll rise from the ashes, stronger than before,
-Leaving you behind, like a dirty old naughty girl/boy.
-I hope you still think of me fondly. 
-</t>
-  </si>
-  <si>
-    <t>ex gf,bf</t>
-  </si>
-  <si>
-    <t>GF,BF</t>
+    <t>I called you by my ex's name during intimacy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1043,388 +903,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
